--- a/result/2020-2023/supertrend_oneshot_ga_NIKKEI_M30.xlsx
+++ b/result/2020-2023/supertrend_oneshot_ga_NIKKEI_M30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\github\Trader-IKU\TradeBot\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\github\Trader-IKU\TradeBot\result\2020-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC5EB3-EBD6-4F9A-A919-F63DCCC3F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E8AED-C7AA-4F4A-A798-989A1E73EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14724" yWindow="1644" windowWidth="19680" windowHeight="21156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
